--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd8.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N2">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O2">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P2">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q2">
-        <v>0.506732974488</v>
+        <v>0.09311718856175</v>
       </c>
       <c r="R2">
-        <v>2.026931897952</v>
+        <v>0.372468754247</v>
       </c>
       <c r="S2">
-        <v>0.2172235822256958</v>
+        <v>0.1951548738676725</v>
       </c>
       <c r="T2">
-        <v>0.1667149596348191</v>
+        <v>0.1334177837857906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.130444</v>
       </c>
       <c r="O3">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P3">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q3">
-        <v>0.403073627778</v>
+        <v>0.05974015503933333</v>
       </c>
       <c r="R3">
-        <v>2.418441766668</v>
+        <v>0.358440930236</v>
       </c>
       <c r="S3">
-        <v>0.1727874476988814</v>
+        <v>0.1252033335800832</v>
       </c>
       <c r="T3">
-        <v>0.1989166098360766</v>
+        <v>0.1283930369592592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N4">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O4">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P4">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q4">
-        <v>0.00237881691</v>
+        <v>0.000114833116</v>
       </c>
       <c r="R4">
-        <v>0.01427290146</v>
+        <v>0.0006889986959999999</v>
       </c>
       <c r="S4">
-        <v>0.00101973851449349</v>
+        <v>0.0002406670842940089</v>
       </c>
       <c r="T4">
-        <v>0.001173944814416256</v>
+        <v>0.0002467983636304174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N5">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O5">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P5">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q5">
-        <v>0.64134531193725</v>
+        <v>0.05732006953275</v>
       </c>
       <c r="R5">
-        <v>2.565381247749</v>
+        <v>0.229280278131</v>
       </c>
       <c r="S5">
-        <v>0.2749284793306162</v>
+        <v>0.1201313217519656</v>
       </c>
       <c r="T5">
-        <v>0.2110023684557578</v>
+        <v>0.08212787307721957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N6">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O6">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P6">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q6">
-        <v>0.4053861034425</v>
+        <v>0.0008336997261666666</v>
       </c>
       <c r="R6">
-        <v>2.432316620655</v>
+        <v>0.005002198357</v>
       </c>
       <c r="S6">
-        <v>0.1737787474029513</v>
+        <v>0.001747266722895904</v>
       </c>
       <c r="T6">
-        <v>0.2000578152829487</v>
+        <v>0.001791780414432544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N7">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O7">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P7">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q7">
-        <v>0.0072690674715</v>
+        <v>0.0001904042985</v>
       </c>
       <c r="R7">
-        <v>0.043614404829</v>
+        <v>0.001142425791</v>
       </c>
       <c r="S7">
-        <v>0.003116064979183438</v>
+        <v>0.0003990490631382076</v>
       </c>
       <c r="T7">
-        <v>0.003587280730995524</v>
+        <v>0.0004092153111825124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.569008</v>
+        <v>3.1851815</v>
       </c>
       <c r="N8">
-        <v>5.138016</v>
+        <v>6.370363</v>
       </c>
       <c r="O8">
-        <v>0.2577238367773512</v>
+        <v>0.4406530230187619</v>
       </c>
       <c r="P8">
-        <v>0.2133397199412101</v>
+        <v>0.3851702893788179</v>
       </c>
       <c r="Q8">
-        <v>0.094477838208</v>
+        <v>0.117138234844</v>
       </c>
       <c r="R8">
-        <v>0.566867029248</v>
+        <v>0.702829409064</v>
       </c>
       <c r="S8">
-        <v>0.04050025455165534</v>
+        <v>0.2454981491510894</v>
       </c>
       <c r="T8">
-        <v>0.04662476030639098</v>
+        <v>0.2517525055930273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>6.130444</v>
       </c>
       <c r="O9">
-        <v>0.2050028063787905</v>
+        <v>0.2827048402157753</v>
       </c>
       <c r="P9">
-        <v>0.2545471259870097</v>
+        <v>0.3706641033643825</v>
       </c>
       <c r="Q9">
         <v>0.07515106951466666</v>
@@ -1013,10 +1013,10 @@
         <v>0.6763596256319999</v>
       </c>
       <c r="S9">
-        <v>0.03221535867990915</v>
+        <v>0.1575015066356921</v>
       </c>
       <c r="T9">
-        <v>0.0556305161509331</v>
+        <v>0.2422710664051232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.110328</v>
       </c>
       <c r="I10">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J10">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.01206</v>
+        <v>0.003928</v>
       </c>
       <c r="N10">
-        <v>0.03618</v>
+        <v>0.011784</v>
       </c>
       <c r="O10">
-        <v>0.001209863679496076</v>
+        <v>0.0005434180358066555</v>
       </c>
       <c r="P10">
-        <v>0.001502259056311421</v>
+        <v>0.0007124942001013113</v>
       </c>
       <c r="Q10">
-        <v>0.0004435185599999999</v>
+        <v>0.000144456128</v>
       </c>
       <c r="R10">
-        <v>0.00399166704</v>
+        <v>0.001300105152</v>
       </c>
       <c r="S10">
-        <v>0.000190125165002586</v>
+        <v>0.0003027509515126466</v>
       </c>
       <c r="T10">
-        <v>0.0003283142418951646</v>
+        <v>0.0004656958364708939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.110328</v>
       </c>
       <c r="I11">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J11">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.2514585</v>
+        <v>1.9606995</v>
       </c>
       <c r="N11">
-        <v>6.502917</v>
+        <v>3.921399</v>
       </c>
       <c r="O11">
-        <v>0.3261875244227854</v>
+        <v>0.2712524111754306</v>
       </c>
       <c r="P11">
-        <v>0.2700128788195549</v>
+        <v>0.2370989514411984</v>
       </c>
       <c r="Q11">
-        <v>0.119575637796</v>
+        <v>0.072106684812</v>
       </c>
       <c r="R11">
-        <v>0.717453826776</v>
+        <v>0.432640108872</v>
       </c>
       <c r="S11">
-        <v>0.05125904509216921</v>
+        <v>0.151121089423465</v>
       </c>
       <c r="T11">
-        <v>0.05901051036379706</v>
+        <v>0.1549710783639789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>0.110328</v>
       </c>
       <c r="I12">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J12">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.055205</v>
+        <v>0.02851766666666667</v>
       </c>
       <c r="N12">
-        <v>6.165615</v>
+        <v>0.085553</v>
       </c>
       <c r="O12">
-        <v>0.2061789289733609</v>
+        <v>0.003945268433245655</v>
       </c>
       <c r="P12">
-        <v>0.2560074895378535</v>
+        <v>0.005172778029639129</v>
       </c>
       <c r="Q12">
-        <v>0.07558221907999998</v>
+        <v>0.001048765709333333</v>
       </c>
       <c r="R12">
-        <v>0.6802399717199999</v>
+        <v>0.009438891384</v>
       </c>
       <c r="S12">
-        <v>0.03240018157040959</v>
+        <v>0.00219800171034975</v>
       </c>
       <c r="T12">
-        <v>0.05594967425490478</v>
+        <v>0.003380997615206584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>0.110328</v>
       </c>
       <c r="I13">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J13">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03685233333333333</v>
+        <v>0.006513000000000001</v>
       </c>
       <c r="N13">
-        <v>0.110557</v>
+        <v>0.019539</v>
       </c>
       <c r="O13">
-        <v>0.003697039768215801</v>
+        <v>0.0009010391209798237</v>
       </c>
       <c r="P13">
-        <v>0.004590526658060303</v>
+        <v>0.001181383585860448</v>
       </c>
       <c r="Q13">
-        <v>0.001355281410666667</v>
+        <v>0.000239522088</v>
       </c>
       <c r="R13">
-        <v>0.012197532696</v>
+        <v>0.002155698792</v>
       </c>
       <c r="S13">
-        <v>0.0005809747890323632</v>
+        <v>0.0005019900578416159</v>
       </c>
       <c r="T13">
-        <v>0.001003245927064779</v>
+        <v>0.0007721682746779358</v>
       </c>
     </row>
   </sheetData>
